--- a/Projektplanung/03-SprintBacklog.xlsx
+++ b/Projektplanung/03-SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B386D2-9D85-43E6-A670-B4CEC59D140F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD01F6E5-3A73-46CC-9C0A-EF8FC3B29F07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3110" yWindow="3800" windowWidth="25970" windowHeight="14490" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4690" yWindow="1910" windowWidth="25970" windowHeight="14490" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
   <si>
     <t>Verantwortlicher</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Position ermitteln</t>
   </si>
   <si>
-    <t>Drehung erkennen</t>
-  </si>
-  <si>
     <t>alle</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Als Benutzer möchte ich mit Hilfe einer Funktion die Wände anhand des importierten Plans zeichnen können (Struktur des Raums festelgen)</t>
   </si>
   <si>
-    <t>Kamera anlegen</t>
-  </si>
-  <si>
     <t>Raum anlegen</t>
   </si>
   <si>
@@ -112,30 +106,18 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Kamera anlegen und löschen</t>
-  </si>
-  <si>
     <t>Kamera rotieren</t>
   </si>
   <si>
-    <t>sinnvolle Anordnung der GameObjects</t>
-  </si>
-  <si>
     <t>Bugfixing</t>
   </si>
   <si>
     <t>Flexible Grid</t>
   </si>
   <si>
-    <t>Rahmen um x/y Koordinate</t>
-  </si>
-  <si>
     <t>Codeimplementation von eigenem Code in Unity/git</t>
   </si>
   <si>
-    <t>Laden und Speicher der vorhandenen GO in JSON</t>
-  </si>
-  <si>
     <t>GitHub Repository</t>
   </si>
   <si>
@@ -151,33 +133,12 @@
     <t>Station anlegen</t>
   </si>
   <si>
-    <t>QR-Code einlesen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test-Simulation </t>
   </si>
   <si>
-    <t>Anzeigen QR Code auf Plan</t>
-  </si>
-  <si>
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Station erstellen</t>
-  </si>
-  <si>
-    <t>verschiedene Ansichten</t>
-  </si>
-  <si>
-    <t>Attribute festlegen</t>
-  </si>
-  <si>
-    <t>Bild einlesen und löschen (automatisiert) // Skript</t>
-  </si>
-  <si>
-    <t>Mehrere QR Codes einlesen und anzeigen</t>
-  </si>
-  <si>
     <t>Abschluss</t>
   </si>
   <si>
@@ -199,9 +160,6 @@
     <t>Aufgaben</t>
   </si>
   <si>
-    <t>User Story Nr. 2</t>
-  </si>
-  <si>
     <t>Start: 04.11.2020 Ende: 17.11.2020</t>
   </si>
   <si>
@@ -211,13 +169,6 @@
     <t>Dötzel</t>
   </si>
   <si>
-    <t>GameObject im Bildausschnitt platzieren</t>
-  </si>
-  <si>
-    <t>Skript schreiben: GO (Ladungsträger) muss auf Bildausschnitt relativ positioniert werden und
- 2 Koordinaten (Ladungsträger x/y Koordinaten) zurückgeben</t>
-  </si>
-  <si>
     <t>Nentwig</t>
   </si>
   <si>
@@ -230,9 +181,6 @@
     <t>User Story Nr. 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Drehung der QR Codes erkennen </t>
-  </si>
-  <si>
     <t>Kovacsik</t>
   </si>
   <si>
@@ -284,9 +232,6 @@
     <t>Start: 14.01.2021 Ende: 15.01.2021</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>GUI Struktur erarbeiten</t>
   </si>
   <si>
@@ -305,19 +250,220 @@
     <t>Stationhandler</t>
   </si>
   <si>
-    <t>Dötzel / Filser</t>
-  </si>
-  <si>
     <t>User Story Nr. 4 + 23</t>
   </si>
   <si>
-    <t>Tastenkombinationen implementiert</t>
-  </si>
-  <si>
     <t>User Story Nr. 6 +</t>
   </si>
   <si>
     <t xml:space="preserve">User Story Nr. 14 + </t>
+  </si>
+  <si>
+    <t>Grundlegende Objektklassen erstellt</t>
+  </si>
+  <si>
+    <t>Kamera Bereiche anlegen und löschen</t>
+  </si>
+  <si>
+    <t>Kamera umpositionieren</t>
+  </si>
+  <si>
+    <t>Statische Klasse zur Verwaltung der Stationen</t>
+  </si>
+  <si>
+    <t>Positionierung der Carrier relativ zum Kamera Bereich</t>
+  </si>
+  <si>
+    <t>Erstellung CarrierHandler</t>
+  </si>
+  <si>
+    <t>Berechnung Position in calcQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story Nr. </t>
+  </si>
+  <si>
+    <t>Rotation zur Relativen Postionsmethode hinzufügen</t>
+  </si>
+  <si>
+    <t>Flo fehlt</t>
+  </si>
+  <si>
+    <t>Load / Save Funktion implementiert</t>
+  </si>
+  <si>
+    <t>Models für DataStations, Carrier und Game Data</t>
+  </si>
+  <si>
+    <t>Dropdown Menü in GUI</t>
+  </si>
+  <si>
+    <t>Pfandangabe der Bilder in GUI</t>
+  </si>
+  <si>
+    <t>Code aufräumen und kommentieren</t>
+  </si>
+  <si>
+    <t>Kamera Order automatisch erstellen</t>
+  </si>
+  <si>
+    <t>Stationen löschen</t>
+  </si>
+  <si>
+    <t>Code anpassen und kommentieren</t>
+  </si>
+  <si>
+    <t>Kamera Bereiche als Datenstruktur</t>
+  </si>
+  <si>
+    <t>ID System implementieren</t>
+  </si>
+  <si>
+    <t>UI mit mit StationHandler verknüpfen</t>
+  </si>
+  <si>
+    <t>Methode Hintergrundbild</t>
+  </si>
+  <si>
+    <t>Handbuch erstellen</t>
+  </si>
+  <si>
+    <t>Button für Modus Wechsel</t>
+  </si>
+  <si>
+    <t>Ausgewählte Station farblich highlighten</t>
+  </si>
+  <si>
+    <t>Git aktualisieren</t>
+  </si>
+  <si>
+    <t>Dokumente erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backlogs aktualisieren </t>
+  </si>
+  <si>
+    <t>Burn Down Chart</t>
+  </si>
+  <si>
+    <t>Mehrere QR Codes aus Bild einlesen</t>
+  </si>
+  <si>
+    <t>Whitelist erweitert</t>
+  </si>
+  <si>
+    <t>SampleCarrier(list) als Childs von Area erstellen</t>
+  </si>
+  <si>
+    <t>Drehung entsprechend des QR Code Rotation</t>
+  </si>
+  <si>
+    <t>UI Responsive Design + auf Deutsch</t>
+  </si>
+  <si>
+    <t>Use Case Modell + Diagramm erstellen</t>
+  </si>
+  <si>
+    <t>Statusanzeigen auf Deutsch</t>
+  </si>
+  <si>
+    <t>Buttons + Felder + Filter anpassen/erweitern</t>
+  </si>
+  <si>
+    <t>GUI Planes umsetzen</t>
+  </si>
+  <si>
+    <t>Panels: +Station, +Carrier, +quit</t>
+  </si>
+  <si>
+    <t>Buttons implementieren + Funktion</t>
+  </si>
+  <si>
+    <t>SettingsController + Funktionen</t>
+  </si>
+  <si>
+    <t>Print Button + Panel + Funktion</t>
+  </si>
+  <si>
+    <t>Carrier Panel + Carrier Buttion+ Carrier Info + Funktionen</t>
+  </si>
+  <si>
+    <t>Verknüpfung Load / Save Funktion</t>
+  </si>
+  <si>
+    <t>Vision Dokument erstellen</t>
+  </si>
+  <si>
+    <t>UI Entwurf</t>
+  </si>
+  <si>
+    <t>Bildpfade anpasssen + Bildgröße ermitteln</t>
+  </si>
+  <si>
+    <t>Station Handler integrieren</t>
+  </si>
+  <si>
+    <t>Bild einlesen und löschen zyklisch</t>
+  </si>
+  <si>
+    <t>Dateipfad verallgemeinern</t>
+  </si>
+  <si>
+    <t>QR-Code einlesen (relativ zur Area)</t>
+  </si>
+  <si>
+    <t>Merge QR Funktion</t>
+  </si>
+  <si>
+    <t>Backlogs aktualisieren</t>
+  </si>
+  <si>
+    <t>Offene Punkte mit Kunde abklären + Feedback</t>
+  </si>
+  <si>
+    <t>User Story Nr</t>
+  </si>
+  <si>
+    <t>Erstellung Meilenstein Vortrag</t>
+  </si>
+  <si>
+    <t>Suchen von geeigneter C# Bibliothek</t>
+  </si>
+  <si>
+    <t>Testen verschiedener Bibliotheken zur Erkennung von QR-Codes</t>
+  </si>
+  <si>
+    <t>QR Code Drehung erkennen</t>
+  </si>
+  <si>
+    <t>Verbessern + Bugfixing</t>
+  </si>
+  <si>
+    <t>QR Code Speichern Funktion</t>
+  </si>
+  <si>
+    <t>Implementierung Grundfunktion print</t>
+  </si>
+  <si>
+    <t>Testen print Funktion</t>
+  </si>
+  <si>
+    <t>Bugfixing Carrier Positioning</t>
+  </si>
+  <si>
+    <t>Carrier Positionierung verbessern</t>
+  </si>
+  <si>
+    <t>Integration von zwei Funktionscycles (Auslesen und zeichen der Daten)</t>
+  </si>
+  <si>
+    <t>FileHandler implementieren</t>
+  </si>
+  <si>
+    <t>Bugfixing UI</t>
+  </si>
+  <si>
+    <t>Code auifräumen</t>
   </si>
 </sst>
 </file>
@@ -336,6 +482,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -419,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -444,6 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -829,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B24EB41-2CD3-4A18-89AE-58F55900D7B8}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,10 +994,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -859,10 +1007,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -871,22 +1019,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -955,11 +1103,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -971,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -985,10 +1133,10 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -1004,9 +1152,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -1032,7 +1178,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1041,10 +1187,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -1061,7 +1207,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -1095,11 +1241,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1108,10 +1254,10 @@
     </row>
     <row r="19" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -1128,7 +1274,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
@@ -1145,7 +1291,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
@@ -1172,7 +1318,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1181,10 +1327,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
@@ -1200,7 +1346,9 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1229,7 +1377,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1238,10 +1386,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
@@ -1258,7 +1406,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
@@ -1275,7 +1423,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
@@ -1292,7 +1440,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -1315,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFFF525-5FBC-4274-BC40-5D4DF16D179B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,10 +1480,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1345,10 +1493,10 @@
     </row>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1357,13 +1505,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1372,11 +1520,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1386,60 +1534,74 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1455,30 +1617,46 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1492,40 +1670,38 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1533,29 +1709,37 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1565,36 +1749,52 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1608,12 +1808,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1621,26 +1819,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1666,9 +1856,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1676,26 +1864,18 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1728,7 +1908,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1744,10 +1924,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1757,10 +1937,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1769,22 +1949,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1793,37 +1973,49 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1837,11 +2029,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1849,36 +2041,48 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1892,11 +2096,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1906,7 +2110,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1916,7 +2120,9 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1943,11 +2149,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1957,11 +2163,9 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1969,7 +2173,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1996,12 +2202,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2050,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58011848-91AC-44BA-9DCA-CE4709EF61DC}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2069,10 +2273,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2082,10 +2286,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2094,22 +2298,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2118,43 +2322,55 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2168,11 +2384,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2181,27 +2397,27 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -2209,12 +2425,8 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2222,9 +2434,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2233,11 +2443,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2247,27 +2457,35 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2290,11 +2508,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2304,32 +2522,52 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2343,11 +2581,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2392,11 +2630,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2405,7 +2643,9 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2414,7 +2654,9 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2423,7 +2665,9 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2447,6 +2691,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2457,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7916571-02D0-40C0-80D6-6A5D4526537B}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2474,10 +2723,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2487,10 +2736,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2499,21 +2748,23 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2521,46 +2772,80 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2568,7 +2853,9 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2577,7 +2864,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2586,7 +2875,9 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2595,7 +2886,9 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2604,10 +2897,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2615,7 +2910,9 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2624,7 +2921,9 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2633,7 +2932,9 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2642,7 +2943,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2651,10 +2954,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2662,7 +2967,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2671,7 +2978,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2698,10 +3007,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2745,10 +3056,12 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2756,11 +3069,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2808,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3EF46-4FF8-440E-9B35-4085126DE72E}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2825,10 +3144,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2838,10 +3157,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2850,21 +3169,23 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2872,7 +3193,9 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2881,7 +3204,9 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2890,7 +3215,9 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2899,7 +3226,9 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2908,10 +3237,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2919,7 +3250,9 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2928,7 +3261,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2937,11 +3272,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2955,10 +3296,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2966,25 +3309,39 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2993,7 +3350,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -3002,10 +3361,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3013,7 +3374,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3022,7 +3385,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3031,7 +3396,9 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3049,10 +3416,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3060,34 +3429,54 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3096,7 +3485,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -3160,7 +3549,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3176,10 +3565,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3189,10 +3578,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3201,21 +3590,23 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3223,29 +3614,53 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3259,10 +3674,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3270,34 +3687,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3306,10 +3737,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3317,7 +3750,9 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3326,7 +3761,9 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -3353,10 +3790,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3364,7 +3803,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3373,7 +3814,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3400,7 +3843,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -3447,7 +3890,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -3527,10 +3970,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3540,10 +3983,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3552,18 +3995,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3610,7 +4053,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -3657,7 +4100,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -3704,7 +4147,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -3751,7 +4194,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -3798,7 +4241,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>

--- a/Projektplanung/03-SprintBacklog.xlsx
+++ b/Projektplanung/03-SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD01F6E5-3A73-46CC-9C0A-EF8FC3B29F07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B1B6C-C6F9-4934-8469-523252F1FB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4690" yWindow="1910" windowWidth="25970" windowHeight="14490" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="3380" windowWidth="25970" windowHeight="14490" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="173">
   <si>
     <t>Verantwortlicher</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>UI mit Funktionalitäten belegen</t>
-  </si>
-  <si>
     <t>Station anlegen</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>Start: 14.01.2021 Ende: 15.01.2021</t>
   </si>
   <si>
-    <t>GUI Struktur erarbeiten</t>
-  </si>
-  <si>
     <t>Layout festlegen</t>
   </si>
   <si>
@@ -247,18 +241,6 @@
     <t>Hartmann</t>
   </si>
   <si>
-    <t>Stationhandler</t>
-  </si>
-  <si>
-    <t>User Story Nr. 4 + 23</t>
-  </si>
-  <si>
-    <t>User Story Nr. 6 +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story Nr. 14 + </t>
-  </si>
-  <si>
     <t>Grundlegende Objektklassen erstellt</t>
   </si>
   <si>
@@ -280,9 +262,6 @@
     <t>Berechnung Position in calcQR</t>
   </si>
   <si>
-    <t xml:space="preserve">User Story Nr. </t>
-  </si>
-  <si>
     <t>Rotation zur Relativen Postionsmethode hinzufügen</t>
   </si>
   <si>
@@ -391,9 +370,6 @@
     <t>Verknüpfung Load / Save Funktion</t>
   </si>
   <si>
-    <t>Vision Dokument erstellen</t>
-  </si>
-  <si>
     <t>UI Entwurf</t>
   </si>
   <si>
@@ -421,9 +397,6 @@
     <t>Offene Punkte mit Kunde abklären + Feedback</t>
   </si>
   <si>
-    <t>User Story Nr</t>
-  </si>
-  <si>
     <t>Erstellung Meilenstein Vortrag</t>
   </si>
   <si>
@@ -463,14 +436,134 @@
     <t>Bugfixing UI</t>
   </si>
   <si>
-    <t>Code auifräumen</t>
+    <t>Backlog aktualisieren</t>
+  </si>
+  <si>
+    <t>Vortrag vorbereiten</t>
+  </si>
+  <si>
+    <t>aktuellen Stand erfahren aufgrund Ausfall</t>
+  </si>
+  <si>
+    <t>CarrierHandler Einarbeitung</t>
+  </si>
+  <si>
+    <t>Dokumente aktualisieren</t>
+  </si>
+  <si>
+    <t>Bildauswertung (Fotos + Ergebnis)</t>
+  </si>
+  <si>
+    <t>Erstellen Vortrag + Orga</t>
+  </si>
+  <si>
+    <t>Code aufräumen</t>
+  </si>
+  <si>
+    <t>User Story Nr. 23</t>
+  </si>
+  <si>
+    <t>User Story Nr. 13,14</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich einen 2D Plan als Raumvorlage bereitgestellt bekommen</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich dass die Bilder automatisiert gelöscht werden (1 Bild Backup)</t>
+  </si>
+  <si>
+    <t>Als Programmierer möchte ich eine gemeinsame Schnittstelle (Shared Ordner) zum Datenaustausch der Bilder</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich verschiedene Konfigurationen selbst definieren (Pfadangabe Shared Ordner, Standortspezifisches)</t>
+  </si>
+  <si>
+    <t>User Story Nr. 2</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich eine Überwachung der Ladungsträger (grobe Übersicht über Standort )</t>
+  </si>
+  <si>
+    <t>User Story Nr. 17</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich verschiedene Stationen anlegen können (Kamerapositionierung und Bildauschnitt)</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich simple Menüführung und intuitive Bedienung</t>
+  </si>
+  <si>
+    <t>User Story Nr. 4 + 22 + 3</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Echzeit Informationen</t>
+  </si>
+  <si>
+    <t>Updatezykklus anpassen</t>
+  </si>
+  <si>
+    <t>QR Codes einlesen und relativ zum Plane, Objekte (zukünftig Träger positionieren)</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich Ladungsträger bestehende Stationen zuteilen</t>
+  </si>
+  <si>
+    <t>User Story Nr.  19</t>
+  </si>
+  <si>
+    <t>Orga</t>
+  </si>
+  <si>
+    <t>User Story Nr. 21</t>
+  </si>
+  <si>
+    <t>User Story Nr. 19</t>
+  </si>
+  <si>
+    <t>Tastenkombination implementieren</t>
+  </si>
+  <si>
+    <t>User Story Nr. 19 + 6</t>
+  </si>
+  <si>
+    <t>Als Kunde möchte ich verschiedene Funktionen per Tastenkombination freischalten</t>
+  </si>
+  <si>
+    <t>User Story Nr.  10</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich alle Ladungsträger abhänig der Stationen filtern</t>
+  </si>
+  <si>
+    <t>User Story Nr. 16</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich jede Station einzeln anzeigen (Verlinkung in der Liste) und ein optisches Feedback (Highlight) in der Liste erhalten</t>
+  </si>
+  <si>
+    <t>User Story Nr. 9</t>
+  </si>
+  <si>
+    <t>Als Kunde möchte ich jeden Ladungsträger individuell verwalten (Anlegen, Bearbeiten, QR Code Zuweisung, ID, Website zum Erstellen Link hinterlegen)</t>
+  </si>
+  <si>
+    <t>User Story Nr. 20 + 9</t>
+  </si>
+  <si>
+    <t>Als Kunde möchte ich jeden Ladungsträger individuell verwalten</t>
+  </si>
+  <si>
+    <t>User Story Nr. 12</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich eine Auflistung der aktuell dazugehörigen Ladungsträger pro Station am Bildschirm angezeigt bekommen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -503,6 +596,10 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -562,9 +659,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -593,9 +691,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{EC695716-331F-4FCD-AA9B-E4C27118013C}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{55EEB1D8-0D9E-40B3-8597-098158EC50FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,7 +1077,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,10 +1093,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1007,10 +1106,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1019,22 +1118,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1103,11 +1202,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1119,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -1136,7 +1235,7 @@
     <row r="10" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -1175,7 +1274,9 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1241,11 +1342,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1257,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -1271,8 +1372,10 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
@@ -1315,10 +1418,12 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1327,10 +1432,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
@@ -1346,9 +1451,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1374,10 +1477,12 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1386,7 +1491,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>18</v>
@@ -1440,7 +1545,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -1464,7 +1569,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1493,10 +1598,10 @@
     </row>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1505,13 +1610,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1520,21 +1625,23 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1568,7 +1675,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1601,15 +1708,17 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1754,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -1670,11 +1779,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1735,11 +1844,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1783,7 +1892,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
@@ -1808,7 +1917,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1908,7 +2017,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1927,7 +2036,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1937,10 +2046,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1949,34 +2058,34 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1991,7 +2100,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2006,12 +2115,373 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58011848-91AC-44BA-9DCA-CE4709EF61DC}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.90625" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="44.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>2</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -2029,23 +2499,27 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="B9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
         <v>2</v>
@@ -2057,37 +2531,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2096,7 +2558,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -2107,35 +2569,61 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="B14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2149,21 +2637,489 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
+    <row r="19" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f>+E55</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7916571-02D0-40C0-80D6-6A5D4526537B}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.90625" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="44.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2174,7 +3130,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2202,10 +3158,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2213,20 +3171,32 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2247,17 +3217,526 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58011848-91AC-44BA-9DCA-CE4709EF61DC}">
-  <dimension ref="A1:G38"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3EF46-4FF8-440E-9B35-4085126DE72E}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.90625" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="44.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CE648-5BC4-4A55-8BB8-4134B15E092B}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2276,7 +3755,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2286,10 +3765,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2298,22 +3777,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2321,33 +3800,31 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -2356,17 +3833,19 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -2384,11 +3863,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2396,18 +3875,16 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2416,34 +3893,58 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -2457,34 +3958,30 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -2508,11 +4005,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2522,52 +4019,32 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6">
-        <v>3</v>
-      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6">
-        <v>3</v>
-      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2581,12 +4058,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2630,1267 +4105,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7916571-02D0-40C0-80D6-6A5D4526537B}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="43.90625" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="44.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3EF46-4FF8-440E-9B35-4085126DE72E}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="43.90625" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="44.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6">
-        <v>4</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>3</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CE648-5BC4-4A55-8BB8-4134B15E092B}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="43.90625" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="44.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -3970,10 +4185,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3983,10 +4198,10 @@
     </row>
     <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3995,18 +4210,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -4053,7 +4268,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -4100,7 +4315,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -4147,7 +4362,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -4194,7 +4409,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -4241,7 +4456,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>

--- a/Projektplanung/03-SprintBacklog.xlsx
+++ b/Projektplanung/03-SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B1B6C-C6F9-4934-8469-523252F1FB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6DE22F-2C60-4E23-8F0A-921DF8E6FEBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="3380" windowWidth="25970" windowHeight="14490" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8260" yWindow="1390" windowWidth="27880" windowHeight="18040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="171">
   <si>
     <t>Verantwortlicher</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Rotation zur Relativen Postionsmethode hinzufügen</t>
   </si>
   <si>
-    <t>Flo fehlt</t>
-  </si>
-  <si>
     <t>Load / Save Funktion implementiert</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>Updatezykklus anpassen</t>
   </si>
   <si>
-    <t>QR Codes einlesen und relativ zum Plane, Objekte (zukünftig Träger positionieren)</t>
-  </si>
-  <si>
     <t>Als Benutzer möchte ich Ladungsträger bestehende Stationen zuteilen</t>
   </si>
   <si>
@@ -520,15 +514,9 @@
     <t>User Story Nr. 19</t>
   </si>
   <si>
-    <t>Tastenkombination implementieren</t>
-  </si>
-  <si>
     <t>User Story Nr. 19 + 6</t>
   </si>
   <si>
-    <t>Als Kunde möchte ich verschiedene Funktionen per Tastenkombination freischalten</t>
-  </si>
-  <si>
     <t>User Story Nr.  10</t>
   </si>
   <si>
@@ -557,6 +545,12 @@
   </si>
   <si>
     <t>Als Benutzer möchte ich eine Auflistung der aktuell dazugehörigen Ladungsträger pro Station am Bildschirm angezeigt bekommen</t>
+  </si>
+  <si>
+    <t>Burkert + Hartmann</t>
+  </si>
+  <si>
+    <t>Funktion Kamera umschreiben</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B24EB41-2CD3-4A18-89AE-58F55900D7B8}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1129,7 +1123,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -1218,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -1235,7 +1229,7 @@
     <row r="10" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -1342,7 +1336,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
@@ -1374,7 +1368,7 @@
     </row>
     <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -1478,7 +1472,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
@@ -1566,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFFF525-5FBC-4274-BC40-5D4DF16D179B}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,11 +1619,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1638,7 +1632,7 @@
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>68</v>
@@ -1651,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1668,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1685,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1695,10 +1689,14 @@
         <v>23</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -1754,7 +1752,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -1799,8 +1797,12 @@
       <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1812,8 +1814,12 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1826,10 +1832,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
@@ -1892,7 +1898,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
@@ -1915,98 +1921,6 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2014,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A3749A-D8F1-4116-A750-C5805A870949}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2069,7 +1983,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -2082,13 +1996,15 @@
     </row>
     <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2100,10 +2016,12 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -2118,7 +2036,9 @@
         <v>30</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2127,11 +2047,9 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2140,7 +2058,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -2154,10 +2072,12 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
@@ -2169,10 +2089,12 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -2184,10 +2106,12 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -2207,7 +2131,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -2220,15 +2144,21 @@
     </row>
     <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2237,18 +2167,20 @@
         <v>72</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>160</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2280,22 +2212,32 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
@@ -2316,51 +2258,6 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2372,7 +2269,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2437,7 +2334,7 @@
     </row>
     <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>63</v>
@@ -2499,7 +2396,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -2512,7 +2409,7 @@
     </row>
     <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>23</v>
@@ -2558,7 +2455,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -2571,10 +2468,10 @@
     </row>
     <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
@@ -2590,13 +2487,13 @@
     </row>
     <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
@@ -2609,10 +2506,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -2637,7 +2534,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
@@ -2650,10 +2547,10 @@
     </row>
     <row r="19" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>4</v>
@@ -2670,14 +2567,14 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2687,14 +2584,14 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="6">
         <v>3</v>
@@ -2712,7 +2609,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -2726,40 +2623,52 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2773,7 +2682,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
@@ -2787,34 +2696,52 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2827,18 +2754,59 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F54">
@@ -2855,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7916571-02D0-40C0-80D6-6A5D4526537B}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2908,7 +2876,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -2922,7 +2890,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -2956,7 +2924,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -2973,7 +2941,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -2989,7 +2957,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -3007,8 +2975,12 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3018,35 +2990,47 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -3059,48 +3043,64 @@
     </row>
     <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3119,23 +3119,33 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3158,7 +3168,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -3172,9 +3182,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6">
         <v>1</v>
@@ -3187,9 +3199,11 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6">
         <v>1</v>
@@ -3219,7 +3233,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
@@ -3233,9 +3247,11 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6">
         <v>1</v>
@@ -3288,10 +3304,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3EF46-4FF8-440E-9B35-4085126DE72E}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3343,7 +3359,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -3356,55 +3372,71 @@
     </row>
     <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -3417,32 +3449,40 @@
     </row>
     <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3450,19 +3490,23 @@
         <v>5</v>
       </c>
       <c r="F11" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3479,7 +3523,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3494,7 +3538,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3509,28 +3553,36 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
@@ -3543,10 +3595,10 @@
     </row>
     <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3561,7 +3613,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3576,7 +3628,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3591,7 +3643,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3617,7 +3669,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3632,7 +3684,7 @@
     <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -3647,7 +3699,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3662,69 +3714,26 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3733,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CE648-5BC4-4A55-8BB8-4134B15E092B}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3788,7 +3797,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -3802,7 +3811,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -3819,7 +3828,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -3835,10 +3844,10 @@
     </row>
     <row r="6" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -3863,7 +3872,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -3877,7 +3886,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -3894,7 +3903,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -3911,7 +3920,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -3928,7 +3937,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3944,7 +3953,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -3958,10 +3967,12 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
@@ -3973,10 +3984,12 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
@@ -4005,7 +4018,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
@@ -4019,12 +4032,18 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -4033,9 +4052,15 @@
         <v>23</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -4104,60 +4129,13 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4169,7 +4147,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Projektplanung/03-SprintBacklog.xlsx
+++ b/Projektplanung/03-SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffils\Documents\GitHub\CarrierTracking\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6DE22F-2C60-4E23-8F0A-921DF8E6FEBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B171B1-35CE-4B44-8F12-E1F4C9BCBF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="1390" windowWidth="27880" windowHeight="18040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="178">
   <si>
     <t>Verantwortlicher</t>
   </si>
@@ -142,9 +142,6 @@
     <t>BACKLOG-AUFGABE &amp; ID</t>
   </si>
   <si>
-    <t>User Story Nr. 1</t>
-  </si>
-  <si>
     <t>Aufwand in Stunden geschätzt</t>
   </si>
   <si>
@@ -229,15 +226,6 @@
     <t>Start: 14.01.2021 Ende: 15.01.2021</t>
   </si>
   <si>
-    <t>Layout festlegen</t>
-  </si>
-  <si>
-    <t>Funktionen darstellen</t>
-  </si>
-  <si>
-    <t>Inhalt in Theorie zusammenstellen</t>
-  </si>
-  <si>
     <t>Hartmann</t>
   </si>
   <si>
@@ -265,12 +253,6 @@
     <t>Rotation zur Relativen Postionsmethode hinzufügen</t>
   </si>
   <si>
-    <t>Load / Save Funktion implementiert</t>
-  </si>
-  <si>
-    <t>Models für DataStations, Carrier und Game Data</t>
-  </si>
-  <si>
     <t>Dropdown Menü in GUI</t>
   </si>
   <si>
@@ -487,9 +469,6 @@
     <t>Als Benutzer möchte ich verschiedene Stationen anlegen können (Kamerapositionierung und Bildauschnitt)</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich simple Menüführung und intuitive Bedienung</t>
-  </si>
-  <si>
     <t>User Story Nr. 4 + 22 + 3</t>
   </si>
   <si>
@@ -551,6 +530,48 @@
   </si>
   <si>
     <t>Funktion Kamera umschreiben</t>
+  </si>
+  <si>
+    <t>Erstellen Datenmodelle Ladungsträger</t>
+  </si>
+  <si>
+    <t>Erstellen Datenmodelle Station</t>
+  </si>
+  <si>
+    <t>Export der Ladungsträger und Stationsobjekte über JSON in eine Datei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlesen der Datei und erstellen von Stations und Ladungsträger Objekte aus den JSON </t>
+  </si>
+  <si>
+    <t>GameObjects aus Unity über JSON zu Serialisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story Nr. </t>
+  </si>
+  <si>
+    <t>Umstieg von JSON Serialisierung auf Binary Files</t>
+  </si>
+  <si>
+    <t>Load / Save Funktion entwickelt</t>
+  </si>
+  <si>
+    <t>Load / Save Funktion in Unity integriert</t>
+  </si>
+  <si>
+    <t>Anlegen Lade und Speicherfunktion für Optionen</t>
+  </si>
+  <si>
+    <t>Automatisches Laden der Stationen und Ladungsträger zum Programmstart</t>
+  </si>
+  <si>
+    <t>Funktionen für Bearbeiten und Löschen von Ladungsträgern implementiert</t>
+  </si>
+  <si>
+    <t>Kovacsik + Burkert</t>
+  </si>
+  <si>
+    <t>Neue Ladefunktion implementiert, Ladungsträger Modell überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B24EB41-2CD3-4A18-89AE-58F55900D7B8}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,10 +1108,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1103,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1112,22 +1133,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1182,7 +1203,9 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1196,11 +1219,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1212,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -1229,7 +1252,7 @@
     <row r="10" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -1269,7 +1292,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
@@ -1336,11 +1359,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1352,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -1368,7 +1391,7 @@
     </row>
     <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -1413,11 +1436,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1426,10 +1449,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
@@ -1472,11 +1495,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1485,7 +1508,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>18</v>
@@ -1539,7 +1562,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -1552,6 +1575,69 @@
         <v>1</v>
       </c>
       <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1560,9 +1646,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFFF525-5FBC-4274-BC40-5D4DF16D179B}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1582,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1595,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1604,13 +1690,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1619,11 +1705,11 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1632,10 +1718,10 @@
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1669,7 +1755,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1702,11 +1788,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1752,7 +1838,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -1777,11 +1863,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1850,11 +1936,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1898,7 +1984,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
@@ -1921,6 +2007,63 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1928,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A3749A-D8F1-4116-A750-C5805A870949}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,7 +2093,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1963,7 +2106,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1972,22 +2115,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1996,7 +2139,7 @@
     </row>
     <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>29</v>
@@ -2016,7 +2159,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -2058,11 +2201,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2072,7 +2215,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -2089,7 +2232,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -2106,7 +2249,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -2131,11 +2274,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2144,10 +2287,10 @@
     </row>
     <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -2164,7 +2307,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -2198,11 +2341,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2212,7 +2355,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -2229,7 +2372,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
@@ -2258,6 +2401,71 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2269,7 +2477,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,7 +2496,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2301,7 +2509,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2310,39 +2518,36 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>149</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2353,36 +2558,20 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2396,11 +2585,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2409,15 +2598,14 @@
     </row>
     <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
@@ -2455,11 +2643,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2468,15 +2656,14 @@
     </row>
     <row r="14" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="6">
         <v>3</v>
       </c>
@@ -2487,15 +2674,14 @@
     </row>
     <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
@@ -2506,15 +2692,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
@@ -2534,11 +2719,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2547,15 +2732,14 @@
     </row>
     <row r="19" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="6">
         <v>2</v>
       </c>
@@ -2567,12 +2751,11 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
@@ -2584,12 +2767,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="6">
         <v>2</v>
       </c>
@@ -2609,11 +2791,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2623,12 +2805,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
@@ -2640,12 +2821,11 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="6">
         <v>2</v>
       </c>
@@ -2657,12 +2837,11 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E26" s="6">
         <v>2</v>
       </c>
@@ -2682,11 +2861,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2696,12 +2875,11 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="6">
         <v>2</v>
       </c>
@@ -2713,12 +2891,11 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E30" s="6">
         <v>2</v>
       </c>
@@ -2730,12 +2907,11 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
@@ -2757,7 +2933,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2767,27 +2943,33 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2823,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7916571-02D0-40C0-80D6-6A5D4526537B}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2840,10 +3022,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2856,7 +3038,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2865,22 +3047,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2890,7 +3072,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -2907,7 +3089,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -2924,7 +3106,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -2941,7 +3123,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -2957,11 +3139,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2971,10 +3153,12 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="6">
         <v>4</v>
       </c>
@@ -2986,10 +3170,12 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -3001,10 +3187,12 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="6">
         <v>2</v>
       </c>
@@ -3016,10 +3204,12 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
@@ -3030,11 +3220,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3043,13 +3233,15 @@
     </row>
     <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="6">
         <v>2</v>
       </c>
@@ -3061,10 +3253,12 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
@@ -3076,10 +3270,12 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
@@ -3091,10 +3287,12 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
@@ -3105,11 +3303,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3119,32 +3317,34 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -3168,11 +3368,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -3182,12 +3382,12 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
@@ -3199,12 +3399,12 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
@@ -3233,11 +3433,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3247,12 +3447,12 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
@@ -3304,10 +3504,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3EF46-4FF8-440E-9B35-4085126DE72E}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3326,7 +3526,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3339,7 +3539,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3348,22 +3548,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3372,13 +3572,15 @@
     </row>
     <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
@@ -3390,10 +3592,12 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -3404,13 +3608,15 @@
     </row>
     <row r="6" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="6">
         <v>3</v>
       </c>
@@ -3422,10 +3628,12 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
@@ -3436,11 +3644,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3449,13 +3657,15 @@
     </row>
     <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
@@ -3467,10 +3677,12 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -3482,10 +3694,12 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="6">
         <v>5</v>
       </c>
@@ -3497,10 +3711,12 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
@@ -3513,7 +3729,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3523,10 +3739,12 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
@@ -3538,10 +3756,12 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
@@ -3553,10 +3773,12 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" s="6">
         <v>2</v>
       </c>
@@ -3568,10 +3790,12 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="6">
         <v>2</v>
       </c>
@@ -3582,11 +3806,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3595,13 +3819,15 @@
     </row>
     <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="6">
         <v>2</v>
       </c>
@@ -3613,10 +3839,12 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
@@ -3628,10 +3856,12 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
@@ -3643,10 +3873,12 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
@@ -3659,7 +3891,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -3669,10 +3901,12 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="6">
         <v>3</v>
       </c>
@@ -3684,10 +3918,12 @@
     <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="6">
         <v>3</v>
       </c>
@@ -3699,10 +3935,12 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E26" s="6">
         <v>2</v>
       </c>
@@ -3714,10 +3952,12 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E27" s="6">
         <v>2</v>
       </c>
@@ -3727,13 +3967,77 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3745,7 +4049,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3764,7 +4068,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3777,7 +4081,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3786,22 +4090,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3811,7 +4115,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -3828,7 +4132,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -3844,10 +4148,10 @@
     </row>
     <row r="6" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -3872,11 +4176,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3886,7 +4190,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -3903,7 +4207,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -3920,7 +4224,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -3937,7 +4241,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3953,11 +4257,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3967,7 +4271,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -3984,7 +4288,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -4018,11 +4322,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -4032,7 +4336,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -4082,32 +4386,48 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -4147,7 +4467,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A28" sqref="A28:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4163,10 +4483,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4179,7 +4499,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -4188,18 +4508,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -4246,7 +4566,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -4293,7 +4613,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -4340,7 +4660,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -4387,7 +4707,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -4434,7 +4754,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
